--- a/data/Bioassay_summaries.xlsx
+++ b/data/Bioassay_summaries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MOSHI SUMMARY" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t xml:space="preserve">AREA INFORMATION:</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Observed mortality (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Kyamyorwa</t>
@@ -513,13 +516,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.203125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.8"/>
@@ -1126,6 +1129,11 @@
       <c r="L22" s="0" t="n">
         <f aca="false">0.14*L10</f>
         <v>133</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1151,11 +1159,11 @@
   </sheetPr>
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.203125" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.2"/>
@@ -1186,13 +1194,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>5</v>
@@ -1212,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1252,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
